--- a/biology/Biologie cellulaire et moléculaire/Œil_de_réplication/Œil_de_réplication.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Œil_de_réplication/Œil_de_réplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92il_de_r%C3%A9plication</t>
+          <t>Œil_de_réplication</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie, le terme d'œil de réplication est utilisé pour désigner la forme représentée par la molécule d'ADN lors de sa réplication. Cette réplication se fait lorsque l'ADN est à l'état de chromatine, pendant la phase S de l’interphase.
 On remarque que chacune des molécules d'ADN se réplique et donne deux nucléofilaments identiques, reliés au niveau du centromère. Cette réplication qui conserve un brin de la molécule d'ADN initiale dans chacune des molécules d'ADN fille est dite semi-conservative. On parle alors de chromosome constitué de deux chromatides. Pour plus de détails, consultez l'interphase.
